--- a/data/trans_dic/CONS_COR-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CONS_COR-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -562,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>18,97%</t>
+          <t>14,17%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>15,44%</t>
+          <t>15,39%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,4%</t>
+          <t>15,48%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>19,24%</t>
+          <t>13,26%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>16,0%</t>
+          <t>14,68%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,94%</t>
+          <t>17,83%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>19,11%</t>
+          <t>13,63%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>15,78%</t>
+          <t>14,94%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>11,13%</t>
+          <t>16,79%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,01; 22,52</t>
+          <t>11,12; 18,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,8; 18,33</t>
+          <t>11,72; 19,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,37; 13,83</t>
+          <t>12,32; 18,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,18; 22,39</t>
+          <t>10,88; 16,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,14; 18,15</t>
+          <t>12,08; 17,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,33; 13,07</t>
+          <t>14,75; 21,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,06; 21,45</t>
+          <t>11,63; 15,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,07; 17,39</t>
+          <t>12,85; 17,54</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,77; 12,51</t>
+          <t>14,67; 19,04</t>
         </is>
       </c>
     </row>
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>9,42%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,09%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,41%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>7,44%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>7,31%</t>
+          <t>4,37%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,82; 8,26</t>
+          <t>8,29; 10,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,33; 4,95</t>
+          <t>2,16; 5,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,04; 10,25</t>
+          <t>4,26; 6,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,43; 5,31</t>
+          <t>4,57; 6,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,82; 2,99</t>
+          <t>1,33; 3,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,65; 6,18</t>
+          <t>2,8; 4,65</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,81; 6,38</t>
+          <t>6,69; 8,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,72; 3,7</t>
+          <t>2,08; 3,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,64; 8,04</t>
+          <t>3,74; 5,11</t>
         </is>
       </c>
     </row>
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>2,23%</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,78; 5,92</t>
+          <t>4,26; 7,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,73; 5,57</t>
+          <t>3,1; 6,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,27; 7,23</t>
+          <t>1,74; 3,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,49; 3,72</t>
+          <t>1,2; 2,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,19; 2,81</t>
+          <t>1,2; 3,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,26; 2,86</t>
+          <t>1,04; 3,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,48; 4,41</t>
+          <t>2,77; 4,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,08; 3,59</t>
+          <t>2,44; 4,44</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,84; 4,41</t>
+          <t>1,63; 3,07</t>
         </is>
       </c>
     </row>
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,67%</t>
+          <t>9,23%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,82%</t>
+          <t>6,03%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>5,63%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,92%</t>
+          <t>7,44%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7,22%</t>
+          <t>5,82%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,76; 9,79</t>
+          <t>8,34; 10,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,13; 6,61</t>
+          <t>3,42; 6,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,06; 9,68</t>
+          <t>5,27; 6,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,31; 8,15</t>
+          <t>5,11; 6,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,55; 5,86</t>
+          <t>3,12; 5,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,17; 6,36</t>
+          <t>4,85; 6,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,22; 8,6</t>
+          <t>6,86; 8,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,06; 6,06</t>
+          <t>3,73; 5,63</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,75; 7,71</t>
+          <t>5,28; 6,45</t>
         </is>
       </c>
     </row>
@@ -1079,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Consumo de medicamentos para el corazón</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>12476</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>35145</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>33400</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>16940</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>57998</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>48799</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>29417</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>93143</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>82200</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>9793; 15873</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>26767; 45414</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>26583; 39806</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>13902; 20939</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>47717; 70047</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>40359; 57684</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>25106; 34084</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>80127; 109366</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>71829; 93212</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>387</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>42722</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>54939</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>44295</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>23188</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>30196</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>31244</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>65910</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>85135</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>75540</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>37617; 48460</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>30382; 73320</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>36750; 54432</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>19748; 27867</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>18415; 44102</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>24303; 40402</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>59252; 73043</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>58276; 109118</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>64739; 88374</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>8766</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>20692</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>10102</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>3536</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>9261</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>7659</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>12302</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>29953</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>17760</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>6467; 11596</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>14255; 29363</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6584; 14586</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2339; 5305</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5342; 16691</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4329; 13413</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>9594; 15365</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>22045; 40125</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>12948; 24431</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>376</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>643</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>63964</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>110776</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>87797</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>43664</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>97456</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>87702</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>107628</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>208232</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>175499</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>57791; 70743</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>71686; 135828</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>76809; 99546</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>38517; 49028</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>69495; 117453</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>75646; 100716</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>99332; 116903</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>161293; 243509</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>159260; 194332</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/CONS_COR-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CONS_COR-Estudios-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el corazón</t>
+          <t>Consumo de medicamentos para el corazón (tasa de respuesta: 99,66%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1115,7 +1115,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el corazón</t>
+          <t>Consumo de medicamentos para el corazón (tasa de respuesta: 99,66%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/CONS_COR-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CONS_COR-Estudios-trans_dic.xlsx
@@ -633,7 +633,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>14,17%</t>
+          <t>14,07%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,26%</t>
+          <t>13,64%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>13,63%</t>
+          <t>13,82%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,12; 18,02</t>
+          <t>11,11; 17,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,72; 19,89</t>
+          <t>11,56; 19,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,88; 16,39</t>
+          <t>11,2; 16,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,08; 17,73</t>
+          <t>11,97; 17,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -716,12 +716,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,63; 15,79</t>
+          <t>11,88; 15,88</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,85; 17,54</t>
+          <t>12,78; 17,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,42%</t>
+          <t>9,07%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>5,46%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -796,12 +796,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,29; 10,69</t>
+          <t>8,03; 10,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,16; 5,2</t>
+          <t>2,0; 5,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,57; 6,45</t>
+          <t>4,63; 6,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,33; 3,18</t>
+          <t>1,2; 3,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,69; 8,25</t>
+          <t>6,62; 8,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,08; 3,9</t>
+          <t>2,13; 3,89</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,26; 7,65</t>
+          <t>3,56; 6,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,1; 6,39</t>
+          <t>3,0; 6,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,2; 2,73</t>
+          <t>0,97; 2,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,2; 3,76</t>
+          <t>1,17; 3,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,77; 4,44</t>
+          <t>2,3; 3,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,44; 4,44</t>
+          <t>2,44; 4,4</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,23%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>7,02%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,34; 10,21</t>
+          <t>7,74; 9,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,42; 6,48</t>
+          <t>3,58; 6,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,11; 6,5</t>
+          <t>4,91; 6,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,12; 5,28</t>
+          <t>3,16; 5,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,86; 8,08</t>
+          <t>6,53; 7,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,73; 5,63</t>
+          <t>3,85; 5,62</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12476</t>
+          <t>11617</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16940</t>
+          <t>16570</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>29417</t>
+          <t>28187</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -1322,12 +1322,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9793; 15873</t>
+          <t>9168; 14410</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>26767; 45414</t>
+          <t>26381; 45384</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1337,12 +1337,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13902; 20939</t>
+          <t>13607; 19811</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>47717; 70047</t>
+          <t>47289; 68497</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -1352,12 +1352,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>25106; 34084</t>
+          <t>24226; 32397</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>80127; 109366</t>
+          <t>79680; 107140</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>42722</t>
+          <t>41851</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>23188</t>
+          <t>24259</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>65910</t>
+          <t>66110</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1485,12 +1485,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>37617; 48460</t>
+          <t>37083; 47490</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>30382; 73320</t>
+          <t>28241; 73207</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1500,12 +1500,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>19748; 27867</t>
+          <t>20579; 28759</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18415; 44102</t>
+          <t>16613; 42916</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1515,12 +1515,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>59252; 73043</t>
+          <t>60020; 73220</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>58276; 109118</t>
+          <t>59649; 108840</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1595,7 +1595,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8766</t>
+          <t>8399</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1610,7 +1610,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3536</t>
+          <t>3519</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12302</t>
+          <t>11918</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1648,12 +1648,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6467; 11596</t>
+          <t>6249; 11089</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>14255; 29363</t>
+          <t>13793; 28804</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1663,12 +1663,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2339; 5305</t>
+          <t>2208; 5303</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>5342; 16691</t>
+          <t>5182; 16160</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1678,12 +1678,12 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>9594; 15365</t>
+          <t>9284; 15250</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>22045; 40125</t>
+          <t>22029; 39741</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1758,7 +1758,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>63964</t>
+          <t>61867</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1773,7 +1773,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>43664</t>
+          <t>44349</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>107628</t>
+          <t>106215</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1811,12 +1811,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>57791; 70743</t>
+          <t>55732; 68436</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>71686; 135828</t>
+          <t>75190; 136507</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1826,12 +1826,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>38517; 49028</t>
+          <t>38963; 49946</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>69495; 117453</t>
+          <t>70300; 117642</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>99332; 116903</t>
+          <t>98803; 115889</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>161293; 243509</t>
+          <t>166260; 242679</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">

--- a/data/trans_dic/CONS_COR-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CONS_COR-Estudios-trans_dic.xlsx
@@ -563,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -633,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>14,91%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>15,48%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>14,07%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>15,39%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>15,48%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>14,96%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>17,83%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>13,64%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>14,68%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>17,83%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>14,94%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>16,79%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>13,82%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>14,94%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>16,79%</t>
         </is>
       </c>
     </row>
@@ -686,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>11,35; 19,14</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>12,32; 18,45</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>11,11; 17,46</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>11,56; 19,88</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>12,32; 18,45</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>12,22; 17,68</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>14,75; 21,08</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>11,2; 16,31</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>11,97; 17,34</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>14,75; 21,08</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>12,83; 17,23</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>14,67; 19,04</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>11,88; 15,88</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>12,78; 17,19</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>14,67; 19,04</t>
         </is>
       </c>
     </row>
@@ -743,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>4,59%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>5,14%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>9,07%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,9%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>5,14%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>2,74%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3,6%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>5,46%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>2,18%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>3,6%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>3,67%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>4,37%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>7,3%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>3,05%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>4,37%</t>
         </is>
       </c>
     </row>
@@ -796,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>3,61; 5,82</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>4,26; 6,31</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>8,03; 10,29</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>2,0; 5,19</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>4,26; 6,31</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>2,04; 3,84</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2,8; 4,65</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>4,63; 6,47</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>1,2; 3,1</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>2,8; 4,65</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>3,09; 4,36</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>3,74; 5,11</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>6,62; 8,08</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>2,13; 3,89</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>3,74; 5,11</t>
         </is>
       </c>
     </row>
@@ -853,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>4,49%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2,67%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>4,78%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>4,5%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,67%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>2,16%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1,84%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>1,54%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>2,09%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>1,84%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>3,34%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2,23%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>2,95%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>3,32%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>2,23%</t>
         </is>
       </c>
     </row>
@@ -906,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>3,1; 6,25</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1,74; 3,85</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>3,56; 6,32</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>3,0; 6,26</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>1,74; 3,85</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>1,28; 3,45</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1,04; 3,22</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>0,97; 2,33</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>1,17; 3,64</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>1,04; 3,22</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>2,48; 4,38</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1,63; 3,07</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>2,3; 3,78</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>2,44; 4,4</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>1,63; 3,07</t>
         </is>
       </c>
     </row>
@@ -963,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>5,85%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6,03%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>8,6%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>5,28%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>6,03%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>5,02%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>5,63%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>5,59%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>4,38%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>5,63%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>5,42%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>5,82%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>7,02%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>4,82%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>5,82%</t>
         </is>
       </c>
     </row>
@@ -1016,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>4,97; 6,89</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>5,27; 6,84</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>7,74; 9,51</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>3,58; 6,51</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>5,27; 6,84</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>4,28; 5,8</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>4,85; 6,46</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>4,91; 6,29</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>3,16; 5,29</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>4,85; 6,46</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>4,84; 6,07</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>5,28; 6,45</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>6,53; 7,66</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>3,85; 5,62</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>5,28; 6,45</t>
         </is>
       </c>
     </row>
@@ -1146,47 +1146,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -1216,47 +1216,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>77</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>102</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>106</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>124</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>179</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>157</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>234</t>
         </is>
       </c>
     </row>
@@ -1269,47 +1269,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>38071</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>33400</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>11617</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>35145</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>33400</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>64722</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>48799</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>16570</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>57998</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>48799</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>102794</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>82200</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>28187</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>93143</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>82200</t>
         </is>
       </c>
     </row>
@@ -1322,47 +1322,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>28996; 48889</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>26583; 39806</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>9168; 14410</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>26381; 45384</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>26583; 39806</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>52866; 76492</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>40359; 57684</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>13607; 19811</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>47289; 68497</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>40359; 57684</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>88239; 118515</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>71829; 93212</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>24226; 32397</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>79680; 107140</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>71829; 93212</t>
         </is>
       </c>
     </row>
@@ -1379,47 +1379,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>245</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>117</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>142</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>387</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>124</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>186</t>
         </is>
       </c>
     </row>
@@ -1432,47 +1432,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>59051</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>44295</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>41851</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>54939</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>44295</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>34842</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>31244</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>24259</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>30196</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>31244</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>93893</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>75540</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>66110</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>85135</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>75540</t>
         </is>
       </c>
     </row>
@@ -1485,47 +1485,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>46449; 74894</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>36750; 54432</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>37083; 47490</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>28241; 73207</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>36750; 54432</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>25882; 48790</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>24303; 40402</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>20579; 28759</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>16613; 42916</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>24303; 40402</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>79121; 111644</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>64739; 88374</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>60020; 73220</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>59649; 108840</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>64739; 88374</t>
         </is>
       </c>
     </row>
@@ -1542,47 +1542,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>54</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>23</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>77</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>46</t>
         </is>
       </c>
     </row>
@@ -1595,47 +1595,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>22895</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>10102</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>8399</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>20692</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>10102</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>10736</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>7659</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>3519</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>9261</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>7659</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>33631</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>17760</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>11918</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>29953</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>17760</t>
         </is>
       </c>
     </row>
@@ -1648,47 +1648,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>15787; 31853</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6584; 14586</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>6249; 11089</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>13793; 28804</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>6584; 14586</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>6346; 17127</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>4329; 13413</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>2208; 5303</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>5182; 16160</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>4329; 13413</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>24966; 44064</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>12948; 24431</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>9284; 15250</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>22029; 39741</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>12948; 24431</t>
         </is>
       </c>
     </row>
@@ -1705,47 +1705,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>376</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>153</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>256</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>267</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>176</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>643</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>329</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>466</t>
         </is>
       </c>
     </row>
@@ -1758,47 +1758,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>120017</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>87797</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>61867</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>110776</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>87797</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>110301</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>87702</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>44349</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>97456</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>87702</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>230318</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>175499</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>106215</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>208232</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>175499</t>
         </is>
       </c>
     </row>
@@ -1811,47 +1811,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>102078; 141421</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>76809; 99546</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>55732; 68436</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>75190; 136507</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>76809; 99546</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>94066; 127652</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>75646; 100716</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>38963; 49946</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>70300; 117642</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>75646; 100716</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>206004; 258106</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>159260; 194332</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>98803; 115889</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>166260; 242679</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>159260; 194332</t>
         </is>
       </c>
     </row>
